--- a/Bayesian eruption estimate/example_data_bayesian_results.xlsx
+++ b/Bayesian eruption estimate/example_data_bayesian_results.xlsx
@@ -523,40 +523,40 @@
         <v>2.309294168433556</v>
       </c>
       <c r="D2" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E2" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F2" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G2" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I2" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J2" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K2" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L2" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M2" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N2" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O2" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="3">
@@ -572,40 +572,40 @@
         <v>2.276625084040809</v>
       </c>
       <c r="D3" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E3" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F3" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G3" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I3" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J3" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K3" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L3" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M3" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N3" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O3" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="4">
@@ -621,40 +621,40 @@
         <v>3.840956839791673</v>
       </c>
       <c r="D4" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E4" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F4" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G4" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I4" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J4" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K4" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L4" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M4" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N4" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O4" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="5">
@@ -670,40 +670,40 @@
         <v>2.059037265966769</v>
       </c>
       <c r="D5" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E5" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F5" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G5" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I5" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J5" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K5" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L5" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M5" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N5" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O5" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="6">
@@ -719,40 +719,40 @@
         <v>3.202451192905671</v>
       </c>
       <c r="D6" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E6" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F6" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G6" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I6" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J6" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K6" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L6" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M6" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N6" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O6" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="7">
@@ -768,40 +768,40 @@
         <v>2.912193852257081</v>
       </c>
       <c r="D7" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E7" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F7" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G7" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I7" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J7" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K7" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L7" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M7" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N7" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O7" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="8">
@@ -817,40 +817,40 @@
         <v>2.14368109859887</v>
       </c>
       <c r="D8" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E8" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F8" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G8" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I8" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J8" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K8" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L8" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M8" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N8" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O8" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="9">
@@ -866,40 +866,40 @@
         <v>3.213079023696643</v>
       </c>
       <c r="D9" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E9" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F9" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G9" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I9" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J9" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K9" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L9" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M9" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N9" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O9" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="10">
@@ -915,40 +915,40 @@
         <v>4.496999549289295</v>
       </c>
       <c r="D10" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E10" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F10" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G10" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I10" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J10" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K10" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L10" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M10" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N10" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O10" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="11">
@@ -964,40 +964,40 @@
         <v>3.17107662077884</v>
       </c>
       <c r="D11" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E11" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F11" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G11" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I11" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J11" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K11" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L11" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M11" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N11" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O11" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="12">
@@ -1013,40 +1013,40 @@
         <v>2.708613771629362</v>
       </c>
       <c r="D12" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E12" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F12" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G12" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I12" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J12" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K12" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L12" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M12" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N12" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O12" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="13">
@@ -1062,40 +1062,40 @@
         <v>2.495769018782826</v>
       </c>
       <c r="D13" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E13" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F13" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G13" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I13" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J13" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K13" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L13" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M13" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N13" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O13" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="14">
@@ -1111,40 +1111,40 @@
         <v>3.872200151352479</v>
       </c>
       <c r="D14" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E14" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F14" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G14" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I14" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J14" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K14" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L14" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M14" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N14" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O14" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         <v>3.986434432321964</v>
       </c>
       <c r="D15" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E15" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F15" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G15" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I15" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J15" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K15" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L15" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M15" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N15" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O15" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="16">
@@ -1209,40 +1209,40 @@
         <v>4.496734027157608</v>
       </c>
       <c r="D16" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E16" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F16" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G16" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I16" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J16" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K16" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L16" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M16" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N16" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O16" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="17">
@@ -1258,40 +1258,40 @@
         <v>2.795033566824548</v>
       </c>
       <c r="D17" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E17" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F17" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G17" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I17" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J17" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K17" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L17" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M17" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N17" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O17" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="18">
@@ -1307,40 +1307,40 @@
         <v>3.490207834579647</v>
       </c>
       <c r="D18" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E18" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F18" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G18" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I18" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J18" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K18" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L18" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M18" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N18" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O18" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="19">
@@ -1356,40 +1356,40 @@
         <v>2.361698631965916</v>
       </c>
       <c r="D19" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E19" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F19" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G19" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I19" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J19" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K19" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L19" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M19" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N19" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O19" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="20">
@@ -1405,40 +1405,40 @@
         <v>4.196629193638335</v>
       </c>
       <c r="D20" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E20" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F20" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G20" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I20" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J20" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K20" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L20" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M20" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N20" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O20" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="21">
@@ -1454,40 +1454,40 @@
         <v>4.227343051503945</v>
       </c>
       <c r="D21" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E21" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F21" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G21" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I21" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J21" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K21" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L21" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M21" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N21" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O21" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="22">
@@ -1503,40 +1503,40 @@
         <v>3.913185809627104</v>
       </c>
       <c r="D22" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E22" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F22" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G22" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I22" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J22" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K22" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L22" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M22" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N22" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O22" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="23">
@@ -1552,40 +1552,40 @@
         <v>4.873365165300024</v>
       </c>
       <c r="D23" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E23" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F23" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G23" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I23" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J23" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K23" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L23" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M23" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N23" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O23" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="24">
@@ -1601,40 +1601,40 @@
         <v>4.200169946951422</v>
       </c>
       <c r="D24" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E24" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F24" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G24" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I24" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J24" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K24" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L24" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M24" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N24" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O24" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="25">
@@ -1650,40 +1650,40 @@
         <v>3.654510746311121</v>
       </c>
       <c r="D25" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E25" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F25" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G25" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I25" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J25" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K25" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L25" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M25" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N25" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O25" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="26">
@@ -1699,40 +1699,40 @@
         <v>3.924126661483809</v>
       </c>
       <c r="D26" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E26" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F26" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G26" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I26" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J26" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K26" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L26" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M26" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N26" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O26" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="27">
@@ -1748,40 +1748,40 @@
         <v>5.266194829413192</v>
       </c>
       <c r="D27" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E27" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F27" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G27" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I27" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J27" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K27" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L27" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M27" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N27" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O27" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="28">
@@ -1797,40 +1797,40 @@
         <v>4.631741977370757</v>
       </c>
       <c r="D28" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E28" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F28" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G28" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I28" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J28" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K28" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L28" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M28" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N28" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O28" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="29">
@@ -1846,40 +1846,40 @@
         <v>3.093656534597164</v>
       </c>
       <c r="D29" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E29" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F29" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G29" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I29" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J29" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K29" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L29" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M29" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N29" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O29" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="30">
@@ -1895,40 +1895,40 @@
         <v>5.790785295721421</v>
       </c>
       <c r="D30" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E30" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F30" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G30" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I30" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J30" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K30" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L30" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M30" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N30" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O30" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="31">
@@ -1944,40 +1944,40 @@
         <v>4.820332830800919</v>
       </c>
       <c r="D31" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E31" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F31" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G31" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I31" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J31" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K31" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L31" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M31" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N31" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O31" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="32">
@@ -1993,40 +1993,40 @@
         <v>3.588091635101372</v>
       </c>
       <c r="D32" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E32" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F32" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G32" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I32" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J32" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K32" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L32" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M32" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N32" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O32" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="33">
@@ -2042,40 +2042,40 @@
         <v>5.443776966982185</v>
       </c>
       <c r="D33" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E33" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F33" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G33" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I33" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J33" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K33" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L33" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M33" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N33" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O33" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="34">
@@ -2091,40 +2091,40 @@
         <v>3.143638379820348</v>
       </c>
       <c r="D34" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E34" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F34" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G34" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I34" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J34" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K34" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L34" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M34" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N34" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O34" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="35">
@@ -2140,40 +2140,40 @@
         <v>3.850765469842473</v>
       </c>
       <c r="D35" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E35" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F35" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G35" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I35" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J35" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K35" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L35" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M35" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N35" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O35" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="36">
@@ -2189,40 +2189,40 @@
         <v>5.52397599984671</v>
       </c>
       <c r="D36" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E36" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F36" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G36" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I36" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J36" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K36" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L36" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M36" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N36" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O36" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="37">
@@ -2238,40 +2238,40 @@
         <v>5.851525808148759</v>
       </c>
       <c r="D37" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E37" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F37" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G37" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I37" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J37" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K37" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L37" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M37" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N37" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O37" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="38">
@@ -2287,40 +2287,40 @@
         <v>3.517345575444804</v>
       </c>
       <c r="D38" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E38" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F38" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G38" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I38" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J38" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K38" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L38" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M38" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N38" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O38" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="39">
@@ -2336,40 +2336,40 @@
         <v>4.632284727365952</v>
       </c>
       <c r="D39" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E39" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F39" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G39" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I39" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J39" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K39" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L39" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M39" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N39" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O39" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="40">
@@ -2385,40 +2385,40 @@
         <v>3.934648887037065</v>
       </c>
       <c r="D40" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E40" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F40" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G40" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I40" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J40" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K40" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L40" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M40" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N40" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O40" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="41">
@@ -2434,40 +2434,40 @@
         <v>2.974130085224829</v>
       </c>
       <c r="D41" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E41" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F41" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G41" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I41" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J41" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K41" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L41" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M41" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N41" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O41" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="42">
@@ -2483,40 +2483,40 @@
         <v>4.253469650911032</v>
       </c>
       <c r="D42" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E42" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F42" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G42" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I42" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J42" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K42" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L42" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M42" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N42" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O42" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="43">
@@ -2532,40 +2532,40 @@
         <v>6.141955199974427</v>
       </c>
       <c r="D43" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E43" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F43" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G43" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I43" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J43" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K43" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L43" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M43" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N43" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O43" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="44">
@@ -2581,40 +2581,40 @@
         <v>4.57629622147297</v>
       </c>
       <c r="D44" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E44" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F44" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G44" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I44" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J44" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K44" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L44" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M44" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N44" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O44" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="45">
@@ -2630,40 +2630,40 @@
         <v>3.707586804808146</v>
       </c>
       <c r="D45" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E45" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F45" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G45" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I45" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J45" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K45" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L45" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M45" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N45" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O45" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="46">
@@ -2679,40 +2679,40 @@
         <v>3.52940870564432</v>
       </c>
       <c r="D46" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E46" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F46" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G46" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I46" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J46" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K46" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L46" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M46" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N46" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O46" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="47">
@@ -2728,40 +2728,40 @@
         <v>4.300318519194894</v>
       </c>
       <c r="D47" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E47" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F47" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G47" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I47" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J47" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K47" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L47" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M47" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N47" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O47" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="48">
@@ -2777,40 +2777,40 @@
         <v>4.73353509299803</v>
       </c>
       <c r="D48" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E48" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F48" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G48" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I48" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J48" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K48" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L48" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M48" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N48" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O48" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="49">
@@ -2826,40 +2826,40 @@
         <v>4.18295127764913</v>
       </c>
       <c r="D49" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E49" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F49" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G49" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I49" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J49" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K49" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L49" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M49" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N49" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O49" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="50">
@@ -2875,40 +2875,40 @@
         <v>5.183967178783867</v>
       </c>
       <c r="D50" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E50" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F50" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G50" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I50" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J50" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K50" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L50" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M50" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N50" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O50" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="51">
@@ -2924,40 +2924,40 @@
         <v>4.502262504507932</v>
       </c>
       <c r="D51" t="n">
-        <v>2.01998186456407</v>
+        <v>2.158360965689185</v>
       </c>
       <c r="E51" t="n">
-        <v>38.88545250292734</v>
+        <v>38.58103724505759</v>
       </c>
       <c r="F51" t="n">
-        <v>1.256387885979167</v>
+        <v>1.214123285646346</v>
       </c>
       <c r="G51" t="n">
-        <v>3.82904768820754</v>
+        <v>3.70435343625656</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9756447958748807</v>
+        <v>0.9755972468893783</v>
       </c>
       <c r="I51" t="n">
-        <v>2.971216146822453</v>
+        <v>2.963919209141287</v>
       </c>
       <c r="J51" t="n">
-        <v>2.076253167303116</v>
+        <v>1.968512002127765</v>
       </c>
       <c r="K51" t="n">
-        <v>25.72908516258757</v>
+        <v>25.87692772261007</v>
       </c>
       <c r="L51" t="n">
-        <v>1.276896064798787</v>
+        <v>1.23714126860572</v>
       </c>
       <c r="M51" t="n">
-        <v>1.776053426957329</v>
+        <v>1.770646272302796</v>
       </c>
       <c r="N51" t="n">
-        <v>1.014991610076291</v>
+        <v>0.9746900998290114</v>
       </c>
       <c r="O51" t="n">
-        <v>1.399494078369943</v>
+        <v>1.380579715070235</v>
       </c>
     </row>
     <row r="52">
@@ -2973,40 +2973,40 @@
         <v>2.628817241410796</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E52" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F52" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G52" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H52" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I52" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K52" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L52" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M52" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N52" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O52" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="53">
@@ -3022,40 +3022,40 @@
         <v>2.369419666821253</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E53" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F53" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G53" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H53" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I53" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K53" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L53" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M53" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N53" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O53" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="54">
@@ -3071,40 +3071,40 @@
         <v>2.592184172167893</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E54" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F54" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G54" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H54" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I54" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K54" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L54" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M54" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N54" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O54" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="55">
@@ -3120,40 +3120,40 @@
         <v>3.118657864668039</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E55" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F55" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G55" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H55" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I55" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J55" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K55" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L55" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M55" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N55" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O55" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="56">
@@ -3169,40 +3169,40 @@
         <v>2.15747866448182</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E56" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F56" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G56" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H56" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I56" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J56" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K56" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L56" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M56" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N56" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O56" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="57">
@@ -3218,40 +3218,40 @@
         <v>3.290841016009502</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E57" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F57" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G57" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H57" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I57" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K57" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L57" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M57" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N57" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O57" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="58">
@@ -3267,40 +3267,40 @@
         <v>4.315360680454914</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E58" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F58" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G58" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H58" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I58" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J58" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K58" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L58" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M58" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N58" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O58" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="59">
@@ -3316,40 +3316,40 @@
         <v>3.275072426376092</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E59" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F59" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G59" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H59" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I59" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K59" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L59" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M59" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N59" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O59" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="60">
@@ -3365,40 +3365,40 @@
         <v>4.536059009656568</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E60" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F60" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G60" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H60" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I60" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K60" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L60" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M60" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N60" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O60" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="61">
@@ -3414,40 +3414,40 @@
         <v>2.95591864050308</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E61" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F61" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G61" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H61" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I61" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K61" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L61" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M61" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N61" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O61" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="62">
@@ -3463,40 +3463,40 @@
         <v>3.450248567284096</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E62" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F62" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G62" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H62" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I62" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K62" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L62" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M62" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N62" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O62" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="63">
@@ -3512,40 +3512,40 @@
         <v>2.708821939569873</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E63" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F63" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G63" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H63" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I63" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K63" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L63" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M63" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N63" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O63" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="64">
@@ -3561,40 +3561,40 @@
         <v>2.278750596642681</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E64" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F64" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G64" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H64" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I64" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K64" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L64" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M64" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N64" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O64" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="65">
@@ -3610,40 +3610,40 @@
         <v>3.640520252732939</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E65" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F65" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G65" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H65" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I65" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K65" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L65" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M65" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N65" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O65" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="66">
@@ -3659,40 +3659,40 @@
         <v>4.327267591005878</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E66" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F66" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G66" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H66" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I66" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K66" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L66" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M66" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N66" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O66" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="67">
@@ -3708,40 +3708,40 @@
         <v>2.629021991219957</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E67" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F67" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G67" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H67" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I67" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K67" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L67" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M67" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N67" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O67" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="68">
@@ -3757,40 +3757,40 @@
         <v>2.732927115142609</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E68" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F68" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G68" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H68" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I68" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J68" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K68" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L68" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M68" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N68" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O68" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="69">
@@ -3806,40 +3806,40 @@
         <v>2.775221478301078</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E69" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F69" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G69" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H69" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I69" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K69" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L69" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M69" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N69" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O69" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="70">
@@ -3855,40 +3855,40 @@
         <v>2.462536093966348</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E70" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F70" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G70" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H70" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I70" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K70" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L70" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M70" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N70" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O70" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="71">
@@ -3904,40 +3904,40 @@
         <v>5.105529216067726</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E71" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F71" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G71" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H71" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I71" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K71" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L71" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M71" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N71" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O71" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="72">
@@ -3953,40 +3953,40 @@
         <v>6.164468232750292</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E72" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F72" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G72" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H72" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I72" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K72" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L72" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M72" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N72" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O72" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="73">
@@ -4002,40 +4002,40 @@
         <v>5.350387379640547</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E73" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F73" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G73" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H73" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I73" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J73" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K73" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L73" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M73" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N73" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O73" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="74">
@@ -4051,40 +4051,40 @@
         <v>5.732257825551624</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E74" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F74" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G74" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H74" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I74" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J74" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K74" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L74" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M74" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N74" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O74" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="75">
@@ -4100,40 +4100,40 @@
         <v>4.935637237534921</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E75" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F75" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G75" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H75" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I75" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K75" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L75" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M75" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N75" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O75" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="76">
@@ -4149,40 +4149,40 @@
         <v>4.288895680379697</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E76" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F76" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G76" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H76" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I76" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K76" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L76" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M76" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N76" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O76" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="77">
@@ -4198,40 +4198,40 @@
         <v>3.943567134336825</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E77" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F77" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G77" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H77" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I77" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J77" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K77" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L77" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M77" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N77" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O77" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="78">
@@ -4247,40 +4247,40 @@
         <v>4.978399027250049</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E78" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F78" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G78" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H78" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I78" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K78" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L78" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M78" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N78" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O78" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="79">
@@ -4296,40 +4296,40 @@
         <v>4.514005808866261</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E79" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F79" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G79" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H79" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I79" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K79" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L79" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M79" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N79" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O79" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="80">
@@ -4345,40 +4345,40 @@
         <v>2.762818309272834</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E80" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F80" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G80" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H80" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I80" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J80" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K80" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L80" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M80" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N80" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O80" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="81">
@@ -4394,40 +4394,40 @@
         <v>4.962056841557197</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E81" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F81" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G81" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H81" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I81" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K81" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L81" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M81" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N81" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O81" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="82">
@@ -4443,40 +4443,40 @@
         <v>3.797518633370682</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E82" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F82" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G82" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H82" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I82" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J82" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K82" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L82" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M82" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N82" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O82" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="83">
@@ -4492,40 +4492,40 @@
         <v>3.813892143301759</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E83" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F83" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G83" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H83" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I83" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K83" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L83" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M83" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N83" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O83" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="84">
@@ -4541,40 +4541,40 @@
         <v>2.986536170267694</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E84" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F84" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G84" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H84" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I84" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K84" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L84" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M84" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N84" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O84" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="85">
@@ -4590,40 +4590,40 @@
         <v>4.342736181022226</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E85" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F85" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G85" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H85" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I85" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K85" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L85" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M85" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N85" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O85" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="86">
@@ -4639,40 +4639,40 @@
         <v>3.73847792893779</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E86" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F86" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G86" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H86" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I86" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K86" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L86" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M86" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N86" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O86" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="87">
@@ -4688,40 +4688,40 @@
         <v>5.271951982688204</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E87" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F87" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G87" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H87" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I87" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K87" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L87" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M87" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N87" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O87" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="88">
@@ -4737,40 +4737,40 @@
         <v>4.716823800473025</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E88" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F88" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G88" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H88" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I88" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J88" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K88" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L88" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M88" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N88" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O88" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="89">
@@ -4786,40 +4786,40 @@
         <v>6.068598347953396</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E89" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F89" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G89" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H89" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I89" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K89" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L89" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M89" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N89" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O89" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="90">
@@ -4835,40 +4835,40 @@
         <v>4.19269219348759</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E90" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F90" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G90" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H90" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I90" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J90" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K90" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L90" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M90" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N90" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O90" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="91">
@@ -4884,40 +4884,40 @@
         <v>6.339744064290761</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E91" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F91" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G91" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H91" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I91" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J91" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K91" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L91" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M91" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N91" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O91" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="92">
@@ -4933,40 +4933,40 @@
         <v>5.108019004503986</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E92" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F92" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G92" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H92" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I92" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K92" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L92" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M92" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N92" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O92" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="93">
@@ -4982,40 +4982,40 @@
         <v>6.999243401473524</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E93" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F93" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G93" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H93" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I93" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J93" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K93" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L93" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M93" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N93" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O93" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="94">
@@ -5031,40 +5031,40 @@
         <v>4.052099982335324</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E94" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F94" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G94" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H94" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I94" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J94" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K94" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L94" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M94" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N94" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O94" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="95">
@@ -5080,40 +5080,40 @@
         <v>5.111714069666647</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E95" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F95" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G95" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H95" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I95" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J95" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K95" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L95" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M95" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N95" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O95" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="96">
@@ -5129,40 +5129,40 @@
         <v>5.434087776417893</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E96" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F96" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G96" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H96" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I96" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K96" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L96" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M96" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N96" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O96" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="97">
@@ -5178,40 +5178,40 @@
         <v>4.457803306574874</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E97" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F97" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G97" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H97" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I97" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K97" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L97" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M97" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N97" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O97" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="98">
@@ -5227,40 +5227,40 @@
         <v>7.272409724479742</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E98" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F98" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G98" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H98" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I98" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J98" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K98" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L98" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M98" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N98" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O98" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="99">
@@ -5276,40 +5276,40 @@
         <v>7.034527776466788</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E99" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F99" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G99" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H99" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I99" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J99" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K99" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L99" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M99" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N99" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O99" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="100">
@@ -5325,40 +5325,40 @@
         <v>6.653478054920139</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E100" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F100" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G100" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H100" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I100" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J100" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K100" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L100" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M100" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N100" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O100" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
     <row r="101">
@@ -5374,40 +5374,40 @@
         <v>7.587662649211474</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.5662023883883716</v>
+        <v>-0.4014931320355126</v>
       </c>
       <c r="E101" t="n">
-        <v>51.76710728372063</v>
+        <v>51.79809790071861</v>
       </c>
       <c r="F101" t="n">
-        <v>1.629010951468558</v>
+        <v>1.531309238196131</v>
       </c>
       <c r="G101" t="n">
-        <v>5.153721976561449</v>
+        <v>5.370349347812826</v>
       </c>
       <c r="H101" t="n">
-        <v>1.280718402692979</v>
+        <v>1.20752010579627</v>
       </c>
       <c r="I101" t="n">
-        <v>4.102020504257929</v>
+        <v>4.194940585173594</v>
       </c>
       <c r="J101" t="n">
-        <v>-0.3380631216679094</v>
+        <v>-0.3631431848834235</v>
       </c>
       <c r="K101" t="n">
-        <v>33.74886747021013</v>
+        <v>33.85363164103608</v>
       </c>
       <c r="L101" t="n">
-        <v>1.422754855563061</v>
+        <v>1.489296542175799</v>
       </c>
       <c r="M101" t="n">
-        <v>2.68826541469622</v>
+        <v>2.319496372770752</v>
       </c>
       <c r="N101" t="n">
-        <v>1.124023992459891</v>
+        <v>1.177990397536996</v>
       </c>
       <c r="O101" t="n">
-        <v>2.085909291254401</v>
+        <v>1.814756599716859</v>
       </c>
     </row>
   </sheetData>
